--- a/doc/xbreakpinout.xlsx
+++ b/doc/xbreakpinout.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26606"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glennwest/3dprinter/xbreak/doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -229,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -249,6 +254,12 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -311,6 +322,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -636,20 +652,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B6:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,7 +706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -725,7 +744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
@@ -763,7 +782,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
@@ -801,7 +820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
@@ -839,7 +858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
@@ -877,7 +896,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>57</v>
       </c>
@@ -885,7 +904,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>62</v>
       </c>
@@ -893,7 +912,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>65</v>
       </c>
@@ -901,7 +920,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>66</v>
       </c>
@@ -910,12 +929,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>